--- a/biology/Histoire de la zoologie et de la botanique/Louis_Lubbers/Louis_Lubbers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Lubbers/Louis_Lubbers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Lubbers (1832-1905) est un botaniste et horticulteur belge.
 Lubbers est chef des cultures au Jardin botanique de l'État à Bruxelles. En 1879, il est chargé de dresser l'inventaire des collections botaniques de la Villa San Donato, près de Florence en Italie, en vue de leur vente aux enchères.
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Palais de San Donato : Catalogue de plantes rares garnissant les serres, Charles Pillet, Paris, 1880, 31 p.
 Catalogue des plantes grasses offertes au Jardin botanique de l'État, par Madame veuve Gaspard Demoulin, Liège, 1882, 35 p.
